--- a/data/trans_camb/P0902-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 1,77</t>
+          <t>-4,75; 2,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 4,34</t>
+          <t>-3,06; 4,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,02</t>
+          <t>-2,85; 4,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,6</t>
+          <t>-5,17; 5,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,88</t>
+          <t>-6,39; 4,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 4,82</t>
+          <t>-3,71; 5,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 2,27</t>
+          <t>-3,45; 2,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,34</t>
+          <t>-2,68; 3,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,64</t>
+          <t>-1,81; 3,65</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 33,55</t>
+          <t>-53,71; 43,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 79,41</t>
+          <t>-34,55; 76,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 76,31</t>
+          <t>-31,06; 76,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 65,71</t>
+          <t>-36,1; 54,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,39; 56,27</t>
+          <t>-44,53; 44,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 56,98</t>
+          <t>-26,64; 58,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 31,7</t>
+          <t>-33,44; 37,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 43,47</t>
+          <t>-25,55; 43,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 49,87</t>
+          <t>-16,89; 49,34</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 9,19</t>
+          <t>1,2; 9,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 3,82</t>
+          <t>-2,86; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,5</t>
+          <t>0,12; 7,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,68</t>
+          <t>-2,84; 6,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 5,36</t>
+          <t>-3,78; 4,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 7,84</t>
+          <t>-0,65; 7,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,63</t>
+          <t>0,65; 6,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 3,5</t>
+          <t>-2,55; 3,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,53</t>
+          <t>1,23; 6,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 263,06</t>
+          <t>13,21; 255,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 116,28</t>
+          <t>-45,49; 108,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 219,37</t>
+          <t>-1,33; 215,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,33; 95,28</t>
+          <t>-27,33; 94,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 78,47</t>
+          <t>-35,49; 72,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 111,58</t>
+          <t>-6,56; 108,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 114,64</t>
+          <t>7,63; 114,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,01; 60,31</t>
+          <t>-30,06; 52,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,73; 114,58</t>
+          <t>16,39; 125,2</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,15; 10,03</t>
+          <t>2,66; 10,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,61</t>
+          <t>-2,0; 4,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 8,54</t>
+          <t>-5,24; 8,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 9,05</t>
+          <t>-7,05; 8,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 12,84</t>
+          <t>-5,62; 12,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 12,27</t>
+          <t>-4,77; 11,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 8,74</t>
+          <t>1,43; 8,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,61</t>
+          <t>-1,5; 5,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 8,02</t>
+          <t>-6,94; 8,29</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,17; 164,15</t>
+          <t>28,87; 172,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 74,45</t>
+          <t>-22,04; 81,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 117,16</t>
+          <t>-59,1; 124,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 65,55</t>
+          <t>-30,21; 60,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 91,41</t>
+          <t>-24,94; 85,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 86,04</t>
+          <t>-20,54; 77,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 97,8</t>
+          <t>11,7; 94,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 64,02</t>
+          <t>-12,33; 61,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-49,25; 84,03</t>
+          <t>-57,59; 88,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 5,31</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,02</t>
+          <t>-2,28; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,22</t>
+          <t>2,78; 8,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,42</t>
+          <t>-0,86; 6,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 3,92</t>
+          <t>-2,61; 4,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 4,69</t>
+          <t>-6,1; 4,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,03</t>
+          <t>0,79; 4,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,92</t>
+          <t>-1,57; 2,7</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 5,83</t>
+          <t>-1,29; 5,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 57,29</t>
+          <t>0,3; 61,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 33,37</t>
+          <t>-19,92; 33,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,48; 90,78</t>
+          <t>23,54; 94,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 61,08</t>
+          <t>-7,38; 57,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 37,7</t>
+          <t>-18,86; 41,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-53,34; 40,67</t>
+          <t>-45,34; 42,38</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 49,63</t>
+          <t>6,91; 48,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 28,82</t>
+          <t>-12,97; 27,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 56,65</t>
+          <t>-10,31; 58,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 5,84</t>
+          <t>-2,31; 6,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,43</t>
+          <t>-1,13; 7,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,57; 12,22</t>
+          <t>3,09; 12,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,23</t>
+          <t>8,38; 17,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,21; 12,85</t>
+          <t>4,34; 12,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 13,46</t>
+          <t>2,39; 13,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,69</t>
+          <t>5,03; 11,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,81</t>
+          <t>2,72; 8,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,46; 12,15</t>
+          <t>4,38; 12,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 73,36</t>
+          <t>-18,87; 79,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 100,23</t>
+          <t>-10,24; 89,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,16; 158,51</t>
+          <t>23,9; 144,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>47,05; 137,4</t>
+          <t>51,23; 143,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>24,58; 101,81</t>
+          <t>24,85; 103,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>13,65; 104,48</t>
+          <t>19,26; 108,42</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>32,43; 104,45</t>
+          <t>34,07; 99,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>17,94; 78,52</t>
+          <t>18,56; 77,13</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>31,89; 106,51</t>
+          <t>31,5; 105,66</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,86</t>
+          <t>-2,66; 3,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 1,16</t>
+          <t>-4,44; 0,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 2,54</t>
+          <t>-3,35; 2,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,15; 8,72</t>
+          <t>1,96; 8,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,53</t>
+          <t>0,44; 7,42</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,09</t>
+          <t>3,33; 10,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,76; 7,19</t>
+          <t>1,5; 7,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,42</t>
+          <t>-0,41; 5,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,26</t>
+          <t>1,48; 7,08</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-58,78; 197,76</t>
+          <t>-59,77; 187,33</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-90,14; 79,75</t>
+          <t>-90,69; 72,62</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,65; 148,78</t>
+          <t>-73,35; 136,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>11,26; 54,63</t>
+          <t>10,08; 52,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>4,05; 46,39</t>
+          <t>1,82; 44,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>17,86; 63,09</t>
+          <t>17,35; 62,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>10,51; 51,83</t>
+          <t>9,55; 52,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 39,74</t>
+          <t>-2,43; 40,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,4; 52,72</t>
+          <t>9,63; 53,05</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,41</t>
+          <t>1,36; 4,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,56</t>
+          <t>-0,29; 2,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,41</t>
+          <t>0,76; 5,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,47; 7,26</t>
+          <t>3,5; 7,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,9</t>
+          <t>1,2; 4,95</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 5,74</t>
+          <t>0,48; 5,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,28</t>
+          <t>2,94; 5,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,21</t>
+          <t>1,0; 3,29</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,18</t>
+          <t>1,56; 5,18</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>15,56; 57,77</t>
+          <t>15,23; 56,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 33,87</t>
+          <t>-3,06; 34,02</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,72; 71,78</t>
+          <t>9,38; 70,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22,55; 52,57</t>
+          <t>22,99; 52,17</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>8,36; 36,51</t>
+          <t>7,81; 35,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,63; 41,03</t>
+          <t>3,57; 40,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>23,63; 48,29</t>
+          <t>24,61; 48,88</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>8,26; 30,09</t>
+          <t>8,61; 30,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>14,74; 47,32</t>
+          <t>13,64; 46,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P0902-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
